--- a/web/fichero.xlsx
+++ b/web/fichero.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
@@ -399,14 +399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
